--- a/simulations/raw_inclusion_exclusion/Radjenovic_2013 IEC/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Radjenovic_2013 IEC/output/tables/metrics/metrics_sim.xlsx
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.8689132266217354</v>
+        <v>0.862173546756529</v>
       </c>
       <c r="I3">
-        <v>0.02486056848423079</v>
+        <v>0.02551172074061491</v>
       </c>
       <c r="J3">
         <v>0.875</v>
       </c>
       <c r="K3">
-        <v>170.8541666666667</v>
+        <v>174.6875</v>
       </c>
       <c r="L3">
         <v>4</v>
@@ -755,34 +755,34 @@
         <v>43</v>
       </c>
       <c r="Q3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="R3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="S3">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="T3">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="U3">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="V3">
-        <v>5874</v>
+        <v>5870</v>
       </c>
       <c r="W3">
-        <v>5867</v>
+        <v>5862</v>
       </c>
       <c r="X3">
-        <v>5803</v>
+        <v>5786</v>
       </c>
       <c r="Y3">
-        <v>5696</v>
+        <v>5705</v>
       </c>
       <c r="Z3">
-        <v>5652</v>
+        <v>5656</v>
       </c>
       <c r="AA3">
         <v>44</v>
@@ -800,19 +800,19 @@
         <v>5</v>
       </c>
       <c r="AF3">
-        <v>0.997792</v>
+        <v>0.997112</v>
       </c>
       <c r="AG3">
-        <v>0.996603</v>
+        <v>0.995753</v>
       </c>
       <c r="AH3">
-        <v>0.985731</v>
+        <v>0.9828440000000001</v>
       </c>
       <c r="AI3">
-        <v>0.967556</v>
+        <v>0.9690839999999999</v>
       </c>
       <c r="AJ3">
-        <v>0.960082</v>
+        <v>0.960761</v>
       </c>
     </row>
   </sheetData>
